--- a/backend/excel/patient-db.xlsx
+++ b/backend/excel/patient-db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -70,10 +70,64 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>!8</t>
+    <t>Atif</t>
   </si>
   <si>
     <t>Abdul Malek bin Suzan</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>rashes</t>
+  </si>
+  <si>
+    <t>Jagabideth Singth</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>aqil</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>chicken pox</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>knee pain</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>ron</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>artrihitis</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -81,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +146,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -109,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,32 +192,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,37 +530,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="13.576428571428572" customWidth="1" style="5"/>
-    <col min="2" max="2" bestFit="1" width="13.576428571428572" customWidth="1" style="6"/>
-    <col min="3" max="3" bestFit="1" width="13.576428571428572" customWidth="1" style="7"/>
-    <col min="4" max="4" bestFit="1" width="13.576428571428572" customWidth="1" style="7"/>
-    <col min="5" max="5" bestFit="1" width="13.576428571428572" customWidth="1" style="7"/>
-    <col min="6" max="6" bestFit="1" width="13.576428571428572" customWidth="1" style="8"/>
+    <col min="1" max="1" bestFit="1" width="13.576428571428572" customWidth="1" style="7"/>
+    <col min="2" max="2" bestFit="1" width="13.576428571428572" customWidth="1" style="8"/>
+    <col min="3" max="3" bestFit="1" width="13.576428571428572" customWidth="1" style="9"/>
+    <col min="4" max="4" bestFit="1" width="13.576428571428572" customWidth="1" style="9"/>
+    <col min="5" max="5" bestFit="1" width="13.576428571428572" customWidth="1" style="9"/>
+    <col min="6" max="6" bestFit="1" width="13.576428571428572" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -501,16 +571,16 @@
       <c r="B2" s="4">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -521,57 +591,137 @@
       <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
+    <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
